--- a/Carpeta de Estudio/E05/Repo1/Patrones de diseño.xlsx
+++ b/Carpeta de Estudio/E05/Repo1/Patrones de diseño.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Documentos\GitHub\MIC-Evolucion_patrones_de_diseno\Carpeta de Estudio\E05\Repo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E2D4D2-51F5-4EF5-8FC1-37A4A2FE3A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3905436E-86E6-467C-93D4-13D364A611DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Patrones utilizados</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>clases</t>
-  </si>
-  <si>
-    <t>MVC</t>
   </si>
   <si>
     <t>Builder</t>
@@ -231,13 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -525,7 +521,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -551,31 +547,27 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="5">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
